--- a/inscriptions.xlsx
+++ b/inscriptions.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>lucasbaillieux@gmail.com</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Montant</t>
+  </si>
+  <si>
+    <t>follet.c3@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -137,13 +140,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D25" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D25" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A1:D25"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Mail"/>
-    <tableColumn id="2" name="Methode" dataDxfId="4"/>
-    <tableColumn id="3" name="Montant" dataDxfId="3"/>
-    <tableColumn id="4" name="TO" dataDxfId="2"/>
+    <tableColumn id="2" name="Methode" dataDxfId="2"/>
+    <tableColumn id="3" name="Montant" dataDxfId="1"/>
+    <tableColumn id="4" name="TO" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,6 +490,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/inscriptions.xlsx
+++ b/inscriptions.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -470,9 +470,35 @@
         <v>Greg</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>mickygif@hotmail.com</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>adrilemaire@live.fr</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>jlf8695@hotmail.com</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>gerimont.nicolas@hotmail.com</v>
+      </c>
+    </row>
+    <row r="14" xml:space="preserve">
+      <c r="A14" t="str" xml:space="preserve">
+        <v xml:space="preserve">bastien_baldo@hotmail.com
+</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/inscriptions.xlsx
+++ b/inscriptions.xlsx
@@ -1,19 +1,116 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ligue-ete-2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Methode</t>
+  </si>
+  <si>
+    <t>Montant</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>lucasbaillieux@gmail.com</t>
+  </si>
+  <si>
+    <t>contact@emmanuelistace.be</t>
+  </si>
+  <si>
+    <t>balteaux@gmail.com</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>manu</t>
+  </si>
+  <si>
+    <t>jenn.decock@gmail.com</t>
+  </si>
+  <si>
+    <t>na.wathelet@gmail.com</t>
+  </si>
+  <si>
+    <t>carte</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>llejeune@hotmail.fr</t>
+  </si>
+  <si>
+    <t>follet.c3@gmail.com</t>
+  </si>
+  <si>
+    <t>Geof</t>
+  </si>
+  <si>
+    <t>bodart.regis@gmail.com</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>mickygif@hotmail.com</t>
+  </si>
+  <si>
+    <t>adrilemaire@live.fr</t>
+  </si>
+  <si>
+    <t>jlf8695@hotmail.com</t>
+  </si>
+  <si>
+    <t>gerimont.nicolas@hotmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bastien_baldo@hotmail.com
+</t>
+  </si>
+  <si>
+    <t>virement</t>
+  </si>
+  <si>
+    <t>Manu</t>
+  </si>
+  <si>
+    <t>cyril.prick@gmail.com</t>
+  </si>
+  <si>
+    <t>olivier.janssen@hotmail.be</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -42,15 +139,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D28" totalsRowShown="0">
+  <autoFilter ref="A1:D28"/>
+  <sortState ref="A2:D28">
+    <sortCondition ref="A1:A28"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Mail"/>
+    <tableColumn id="2" name="Methode"/>
+    <tableColumn id="3" name="Montant"/>
+    <tableColumn id="4" name="TO"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,131 +498,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="44.375" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Mail</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Methode</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Montant</v>
-      </c>
-      <c r="D1" t="str">
-        <v>TO</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>lucasbaillieux@gmail.com</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>contact@emmanuelistace.be</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>balteaux@gmail.com</v>
-      </c>
-      <c r="B4" t="str">
-        <v>cash</v>
-      </c>
-      <c r="C4" t="str">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" t="str">
-        <v>manu</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>jenn.decock@gmail.com</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>na.wathelet@gmail.com</v>
-      </c>
-      <c r="B6" t="str">
-        <v>carte</v>
-      </c>
-      <c r="C6" t="str">
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="str">
-        <v>manu</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>llejeune@hotmail.fr</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>follet.c3@gmail.com</v>
-      </c>
-      <c r="B8" t="str">
-        <v>cash</v>
-      </c>
-      <c r="C8" t="str">
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="D8" t="str">
-        <v>Geof</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>bodart.regis@gmail.com</v>
-      </c>
-      <c r="B9" t="str">
-        <v>cash</v>
-      </c>
-      <c r="C9" t="str">
-        <v>5</v>
-      </c>
-      <c r="D9" t="str">
-        <v>Greg</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>mickygif@hotmail.com</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>adrilemaire@live.fr</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>jlf8695@hotmail.com</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>gerimont.nicolas@hotmail.com</v>
-      </c>
-    </row>
-    <row r="14" xml:space="preserve">
-      <c r="A14" t="str" xml:space="preserve">
-        <v xml:space="preserve">bastien_baldo@hotmail.com
-</v>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D14"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/inscriptions.xlsx
+++ b/inscriptions.xlsx
@@ -1,116 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ligue-ete-2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="13020"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Methode</t>
-  </si>
-  <si>
-    <t>Montant</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>lucasbaillieux@gmail.com</t>
-  </si>
-  <si>
-    <t>contact@emmanuelistace.be</t>
-  </si>
-  <si>
-    <t>balteaux@gmail.com</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>manu</t>
-  </si>
-  <si>
-    <t>jenn.decock@gmail.com</t>
-  </si>
-  <si>
-    <t>na.wathelet@gmail.com</t>
-  </si>
-  <si>
-    <t>carte</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>llejeune@hotmail.fr</t>
-  </si>
-  <si>
-    <t>follet.c3@gmail.com</t>
-  </si>
-  <si>
-    <t>Geof</t>
-  </si>
-  <si>
-    <t>bodart.regis@gmail.com</t>
-  </si>
-  <si>
-    <t>Greg</t>
-  </si>
-  <si>
-    <t>mickygif@hotmail.com</t>
-  </si>
-  <si>
-    <t>adrilemaire@live.fr</t>
-  </si>
-  <si>
-    <t>jlf8695@hotmail.com</t>
-  </si>
-  <si>
-    <t>gerimont.nicolas@hotmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bastien_baldo@hotmail.com
-</t>
-  </si>
-  <si>
-    <t>virement</t>
-  </si>
-  <si>
-    <t>Manu</t>
-  </si>
-  <si>
-    <t>cyril.prick@gmail.com</t>
-  </si>
-  <si>
-    <t>olivier.janssen@hotmail.be</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -139,42 +42,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D28" totalsRowShown="0">
-  <autoFilter ref="A1:D28"/>
-  <sortState ref="A2:D28">
-    <sortCondition ref="A1:A28"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Mail"/>
-    <tableColumn id="2" name="Methode"/>
-    <tableColumn id="3" name="Montant"/>
-    <tableColumn id="4" name="TO"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,158 +374,168 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="44.375" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Mail</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Methode</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Montant</v>
+      </c>
+      <c r="D1" t="str">
+        <v>TO</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>adrilemaire@live.fr</v>
+      </c>
+      <c r="B2" t="str">
+        <v>cash</v>
+      </c>
+      <c r="C2" t="str">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D2" t="str">
+        <v>Greg</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>balteaux@gmail.com</v>
+      </c>
+      <c r="B3" t="str">
+        <v>cash</v>
+      </c>
+      <c r="C3" t="str">
+        <v>5</v>
+      </c>
+      <c r="D3" t="str">
+        <v>manu</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str" xml:space="preserve">
+        <v xml:space="preserve">bastien_baldo@hotmail.com_x000d_
+</v>
+      </c>
+      <c r="B4" t="str">
+        <v>virement</v>
+      </c>
+      <c r="C4" t="str">
+        <v>5</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Manu</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>bodart.regis@gmail.com</v>
+      </c>
+      <c r="B5" t="str">
+        <v>cash</v>
+      </c>
+      <c r="C5" t="str">
+        <v>5</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Greg</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>contact@emmanuelistace.be</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>follet.c3@gmail.com</v>
+      </c>
+      <c r="B7" t="str">
+        <v>cash</v>
+      </c>
+      <c r="C7" t="str">
+        <v>5</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Geof</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>gerimont.nicolas@hotmail.com</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>jenn.decock@gmail.com</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>jlf8695@hotmail.com</v>
+      </c>
+      <c r="B10" t="str">
+        <v>cash</v>
+      </c>
+      <c r="C10" t="str">
+        <v>5</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Greg</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>llejeune@hotmail.fr</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>lucasbaillieux@gmail.com</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>mickygif@hotmail.com</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>na.wathelet@gmail.com</v>
+      </c>
+      <c r="B14" t="str">
+        <v>carte</v>
+      </c>
+      <c r="C14" t="str">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
+      <c r="D14" t="str">
+        <v>manu</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>cyril.prick@gmail.com</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>olivier.janssen@hotmail.be</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D16"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/inscriptions.xlsx
+++ b/inscriptions.xlsx
@@ -1,19 +1,107 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ligue-ete-2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Methode</t>
+  </si>
+  <si>
+    <t>Montant</t>
+  </si>
+  <si>
+    <t>TO</t>
+  </si>
+  <si>
+    <t>adrilemaire@live.fr</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Greg</t>
+  </si>
+  <si>
+    <t>balteaux@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bastien_baldo@hotmail.com_x000D_
+</t>
+  </si>
+  <si>
+    <t>virement</t>
+  </si>
+  <si>
+    <t>Manu</t>
+  </si>
+  <si>
+    <t>bodart.regis@gmail.com</t>
+  </si>
+  <si>
+    <t>follet.c3@gmail.com</t>
+  </si>
+  <si>
+    <t>Geof</t>
+  </si>
+  <si>
+    <t>gerimont.nicolas@hotmail.com</t>
+  </si>
+  <si>
+    <t>jenn.decock@gmail.com</t>
+  </si>
+  <si>
+    <t>jlf8695@hotmail.com</t>
+  </si>
+  <si>
+    <t>llejeune@hotmail.fr</t>
+  </si>
+  <si>
+    <t>lucasbaillieux@gmail.com</t>
+  </si>
+  <si>
+    <t>na.wathelet@gmail.com</t>
+  </si>
+  <si>
+    <t>carte</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>cyril.prick@gmail.com</t>
+  </si>
+  <si>
+    <t>olivier.janssen@hotmail.be</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,7 +138,28 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D14" totalsRowShown="0">
+  <autoFilter ref="A1:D14"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Mail"/>
+    <tableColumn id="2" name="Methode"/>
+    <tableColumn id="3" name="Montant"/>
+    <tableColumn id="4" name="TO"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -374,168 +483,175 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Mail</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Methode</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Montant</v>
-      </c>
-      <c r="D1" t="str">
-        <v>TO</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>adrilemaire@live.fr</v>
-      </c>
-      <c r="B2" t="str">
-        <v>cash</v>
-      </c>
-      <c r="C2" t="str">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="str">
-        <v>Greg</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>balteaux@gmail.com</v>
-      </c>
-      <c r="B3" t="str">
-        <v>cash</v>
-      </c>
-      <c r="C3" t="str">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="str">
-        <v>manu</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4" t="str" xml:space="preserve">
-        <v xml:space="preserve">bastien_baldo@hotmail.com_x000d_
-</v>
-      </c>
-      <c r="B4" t="str">
-        <v>virement</v>
-      </c>
-      <c r="C4" t="str">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="str">
-        <v>Manu</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>bodart.regis@gmail.com</v>
-      </c>
-      <c r="B5" t="str">
-        <v>cash</v>
-      </c>
-      <c r="C5" t="str">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="str">
-        <v>Greg</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>contact@emmanuelistace.be</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>follet.c3@gmail.com</v>
-      </c>
-      <c r="B7" t="str">
-        <v>cash</v>
-      </c>
-      <c r="C7" t="str">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" t="str">
-        <v>Geof</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>gerimont.nicolas@hotmail.com</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>jenn.decock@gmail.com</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>jlf8695@hotmail.com</v>
-      </c>
-      <c r="B10" t="str">
-        <v>cash</v>
-      </c>
-      <c r="C10" t="str">
+      <c r="C8">
         <v>5</v>
       </c>
-      <c r="D10" t="str">
-        <v>Greg</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>llejeune@hotmail.fr</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>lucasbaillieux@gmail.com</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>mickygif@hotmail.com</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>na.wathelet@gmail.com</v>
-      </c>
-      <c r="B14" t="str">
-        <v>carte</v>
-      </c>
-      <c r="C14" t="str">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="str">
-        <v>manu</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>cyril.prick@gmail.com</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>olivier.janssen@hotmail.be</v>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D16"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/inscriptions.xlsx
+++ b/inscriptions.xlsx
@@ -1,107 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ligue-ete-2021\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="13020"/>
-  </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
-  <si>
-    <t>Mail</t>
-  </si>
-  <si>
-    <t>Methode</t>
-  </si>
-  <si>
-    <t>Montant</t>
-  </si>
-  <si>
-    <t>TO</t>
-  </si>
-  <si>
-    <t>adrilemaire@live.fr</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Greg</t>
-  </si>
-  <si>
-    <t>balteaux@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bastien_baldo@hotmail.com_x000D_
-</t>
-  </si>
-  <si>
-    <t>virement</t>
-  </si>
-  <si>
-    <t>Manu</t>
-  </si>
-  <si>
-    <t>bodart.regis@gmail.com</t>
-  </si>
-  <si>
-    <t>follet.c3@gmail.com</t>
-  </si>
-  <si>
-    <t>Geof</t>
-  </si>
-  <si>
-    <t>gerimont.nicolas@hotmail.com</t>
-  </si>
-  <si>
-    <t>jenn.decock@gmail.com</t>
-  </si>
-  <si>
-    <t>jlf8695@hotmail.com</t>
-  </si>
-  <si>
-    <t>llejeune@hotmail.fr</t>
-  </si>
-  <si>
-    <t>lucasbaillieux@gmail.com</t>
-  </si>
-  <si>
-    <t>na.wathelet@gmail.com</t>
-  </si>
-  <si>
-    <t>carte</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>cyril.prick@gmail.com</t>
-  </si>
-  <si>
-    <t>olivier.janssen@hotmail.be</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -138,28 +50,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D14" totalsRowShown="0">
-  <autoFilter ref="A1:D14"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Mail"/>
-    <tableColumn id="2" name="Methode"/>
-    <tableColumn id="3" name="Montant"/>
-    <tableColumn id="4" name="TO"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,175 +374,176 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Mail</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Methode</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Montant</v>
+      </c>
+      <c r="D1" t="str">
+        <v>TO</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>adrilemaire@live.fr</v>
+      </c>
+      <c r="B2" t="str">
+        <v>cash</v>
+      </c>
+      <c r="C2" t="str">
+        <v>5</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Greg</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>balteaux@gmail.com</v>
+      </c>
+      <c r="B3" t="str">
+        <v>cash</v>
+      </c>
+      <c r="C3" t="str">
+        <v>5</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Manu</v>
+      </c>
+    </row>
+    <row r="4" xml:space="preserve">
+      <c r="A4" t="str" xml:space="preserve">
+        <v xml:space="preserve">bastien_baldo@hotmail.com_x000d__x000d_
+</v>
+      </c>
+      <c r="B4" t="str">
+        <v>virement</v>
+      </c>
+      <c r="C4" t="str">
+        <v>5</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Manu</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>bodart.regis@gmail.com</v>
+      </c>
+      <c r="B5" t="str">
+        <v>cash</v>
+      </c>
+      <c r="C5" t="str">
+        <v>5</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Greg</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>follet.c3@gmail.com</v>
+      </c>
+      <c r="B6" t="str">
+        <v>cash</v>
+      </c>
+      <c r="C6" t="str">
+        <v>5</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Geof</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>gerimont.nicolas@hotmail.com</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>jenn.decock@gmail.com</v>
+      </c>
+      <c r="B8" t="str">
+        <v>cash</v>
+      </c>
+      <c r="C8" t="str">
+        <v>5</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Manu</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>jlf8695@hotmail.com</v>
+      </c>
+      <c r="B9" t="str">
+        <v>cash</v>
+      </c>
+      <c r="C9" t="str">
+        <v>5</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Greg</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>llejeune@hotmail.fr</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>lucasbaillieux@gmail.com</v>
+      </c>
+      <c r="B11" t="str">
+        <v>cash</v>
+      </c>
+      <c r="C11" t="str">
+        <v>5</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Greg</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>na.wathelet@gmail.com</v>
+      </c>
+      <c r="B12" t="str">
+        <v>carte</v>
+      </c>
+      <c r="C12" t="str">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>24</v>
+      <c r="D12" t="str">
+        <v>Manu</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>cyril.prick@gmail.com</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>olivier.janssen@hotmail.be</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:D14"/>
+  </ignoredErrors>
 </worksheet>
 </file>